--- a/target/classes/com/jpractice/resources/ExportExcel.xlsx
+++ b/target/classes/com/jpractice/resources/ExportExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marianna.fields\sanbox\javaPractice\src\com\jpractice\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD529B-3FE0-4B50-8ADD-19339F4DC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F9F5D-AECA-468E-BBA1-3D75B64F5B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="2028" windowWidth="21876" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2016" windowWidth="21876" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRExcelDemo" sheetId="3" r:id="rId1"/>
@@ -114,7 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
